--- a/softwares_instalados/Usuário Logado - thiago-pinheiro.xlsx
+++ b/softwares_instalados/Usuário Logado - thiago-pinheiro.xlsx
@@ -850,6 +850,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">

--- a/softwares_instalados/Usuário Logado - thiago-pinheiro.xlsx
+++ b/softwares_instalados/Usuário Logado - thiago-pinheiro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
   <si>
     <t>DisplayName</t>
   </si>
@@ -494,16 +494,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -519,7 +511,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -527,30 +519,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,6 +532,17 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TabelaSoftware" displayName="TabelaSoftware" ref="A1:B99" totalsRowShown="0">
+  <autoFilter ref="A1:B99"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="DisplayName"/>
+    <tableColumn id="2" name="DisplayVersion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -847,18 +832,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1645,5 +1634,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/softwares_instalados/Usuário Logado - thiago-pinheiro.xlsx
+++ b/softwares_instalados/Usuário Logado - thiago-pinheiro.xlsx
@@ -494,8 +494,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -523,8 +531,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,796 +848,796 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>157</v>
       </c>
     </row>
